--- a/biology/Botanique/Faux-poivrier_du_Japon/Faux-poivrier_du_Japon.xlsx
+++ b/biology/Botanique/Faux-poivrier_du_Japon/Faux-poivrier_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Operculicarya decaryi
 Le faux-poivrier du Japon (Operculicarya decaryi) appelé aussi jabily, est un arbre de la famille des Anacardiacées originaire de Madagascar.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms Vernaculaires
-Son nom scientifique vient du botaniste Raymond Decary.
+          <t>Noms Vernaculaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom scientifique vient du botaniste Raymond Decary.
 </t>
         </is>
       </c>
@@ -544,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arbre à feuilles composées pennées, vert foncé et brillantes. Comme son faux ami, les feuilles froissées dégagent une odeur épicée très agréable. La petitesse de ses feuilles en fait un spécimen parfait pour la culture en Bonsaï.
 Type : feuillu
@@ -577,7 +596,9 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faux Poivrier est une essence à feuilles composées, il faut donc couper à la base du
 pétiole vert plus ou moins aplati qui portent les folioles arrondies
@@ -610,7 +631,9 @@
           <t>Arrosage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Régulièrement, il est gourmand en eau, mais on laissera sécher la surface entre deux arrosages. Une perte de feuille vous alarmera d'un manque d'eau.
 </t>
@@ -641,7 +664,9 @@
           <t>Fertilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Appliquez toute l’année un engrais au NPK équilibré, organique à décomposition lente, puis liquide  une fois rentré pour l’hiver, tout en diminuant les apports durant cette saison.
 Période de rempotage : au printemps
@@ -674,7 +699,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut surveiller les pucerons.
 </t>
@@ -705,7 +732,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hivernage dans une pièce fraîche mais lumineuse. Il passe l’été dehors au soleil sans protection particulière.
 </t>
@@ -736,7 +765,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve facilement chez le pépiniériste à moindre coût. Mais on peut aussi l'obtenir par semis.
 Dans ce dernier cas, on plantera les graines dans de l'Akadama pur, qu'on laissera se développer durant 2 ans avant d'entretenir comme un
@@ -769,7 +800,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Operculicarya borealis
 Operculicarya gummifera
